--- a/TruthTable for MAX.xlsx
+++ b/TruthTable for MAX.xlsx
@@ -454,10 +454,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -854,12 +857,12 @@
   <dimension ref="B3:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.77734375" bestFit="1" customWidth="1"/>
@@ -868,39 +871,39 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="20.399999999999999" x14ac:dyDescent="0.45">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>0</v>
       </c>
       <c r="C4" s="1">
@@ -932,7 +935,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>1</v>
       </c>
       <c r="C5" s="1">
@@ -964,7 +967,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>2</v>
       </c>
       <c r="C6" s="1">
@@ -996,7 +999,7 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>3</v>
       </c>
       <c r="C7" s="1">
@@ -1028,7 +1031,7 @@
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>4</v>
       </c>
       <c r="C8" s="1">
@@ -1060,7 +1063,7 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>5</v>
       </c>
       <c r="C9" s="1">
@@ -1092,7 +1095,7 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>6</v>
       </c>
       <c r="C10" s="1">
@@ -1124,7 +1127,7 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B11" s="4">
+      <c r="B11" s="5">
         <v>7</v>
       </c>
       <c r="C11" s="1">
@@ -1156,7 +1159,7 @@
       </c>
     </row>
     <row r="12" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B12" s="4">
+      <c r="B12" s="5">
         <v>8</v>
       </c>
       <c r="C12" s="1">
@@ -1188,7 +1191,7 @@
       </c>
     </row>
     <row r="13" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B13" s="4">
+      <c r="B13" s="5">
         <v>9</v>
       </c>
       <c r="C13" s="1">
@@ -1220,7 +1223,7 @@
       </c>
     </row>
     <row r="14" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B14" s="4">
+      <c r="B14" s="5">
         <v>10</v>
       </c>
       <c r="C14" s="1">
@@ -1252,7 +1255,7 @@
       </c>
     </row>
     <row r="15" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B15" s="4">
+      <c r="B15" s="5">
         <v>11</v>
       </c>
       <c r="C15" s="1">
@@ -1284,7 +1287,7 @@
       </c>
     </row>
     <row r="16" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B16" s="4">
+      <c r="B16" s="5">
         <v>12</v>
       </c>
       <c r="C16" s="1">
@@ -1316,7 +1319,7 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B17" s="4">
+      <c r="B17" s="5">
         <v>13</v>
       </c>
       <c r="C17" s="1">
@@ -1348,7 +1351,7 @@
       </c>
     </row>
     <row r="18" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B18" s="4">
+      <c r="B18" s="5">
         <v>14</v>
       </c>
       <c r="C18" s="1">
@@ -1380,7 +1383,7 @@
       </c>
     </row>
     <row r="19" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B19" s="4">
+      <c r="B19" s="5">
         <v>15</v>
       </c>
       <c r="C19" s="1">
@@ -1407,7 +1410,7 @@
       <c r="J19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="2">
         <v>0</v>
       </c>
     </row>

--- a/TruthTable for MAX.xlsx
+++ b/TruthTable for MAX.xlsx
@@ -356,9 +356,6 @@
     <t>B3 + B2 + (B1&amp;B0)</t>
   </si>
   <si>
-    <t>B3 + B2 + ((B1&amp;B0)+(B3 + B2))</t>
-  </si>
-  <si>
     <t>B3 + B2(B1 + B0)</t>
   </si>
   <si>
@@ -387,6 +384,9 @@
   </si>
   <si>
     <t>B3(B2+B1+B0)</t>
+  </si>
+  <si>
+    <t>B3 + B2</t>
   </si>
 </sst>
 </file>
@@ -854,10 +854,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B3:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1027,7 +1030,7 @@
         <v>8</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
@@ -1059,7 +1062,7 @@
         <v>8</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
@@ -1091,7 +1094,7 @@
         <v>8</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
@@ -1123,7 +1126,7 @@
         <v>8</v>
       </c>
       <c r="K10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
@@ -1187,7 +1190,7 @@
         <v>8</v>
       </c>
       <c r="K12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
@@ -1219,7 +1222,7 @@
         <v>8</v>
       </c>
       <c r="K13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
@@ -1251,7 +1254,7 @@
         <v>8</v>
       </c>
       <c r="K14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
@@ -1283,7 +1286,7 @@
         <v>8</v>
       </c>
       <c r="K15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
@@ -1315,7 +1318,7 @@
         <v>8</v>
       </c>
       <c r="K16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
@@ -1347,7 +1350,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
@@ -1379,7 +1382,7 @@
         <v>8</v>
       </c>
       <c r="K18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
@@ -1416,8 +1419,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="94" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/TruthTable for MAX.xlsx
+++ b/TruthTable for MAX.xlsx
@@ -377,9 +377,6 @@
     <t>B3&amp;B2</t>
   </si>
   <si>
-    <t>(B3&amp;B2)+(B3&amp;B1&amp;B0)</t>
-  </si>
-  <si>
     <t>(B3(B2+B1)</t>
   </si>
   <si>
@@ -387,6 +384,9 @@
   </si>
   <si>
     <t>B3 + B2</t>
+  </si>
+  <si>
+    <t>(B3&amp;(B2+(B1&amp;B0))</t>
   </si>
 </sst>
 </file>
@@ -860,7 +860,7 @@
   <dimension ref="B3:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1030,7 +1030,7 @@
         <v>8</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
@@ -1190,7 +1190,7 @@
         <v>8</v>
       </c>
       <c r="K12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
@@ -1222,7 +1222,7 @@
         <v>8</v>
       </c>
       <c r="K13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
@@ -1254,7 +1254,7 @@
         <v>8</v>
       </c>
       <c r="K14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">

--- a/TruthTable for MAX.xlsx
+++ b/TruthTable for MAX.xlsx
@@ -393,14 +393,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,10 +455,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -477,28 +470,6 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -523,6 +494,28 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -539,18 +532,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="B3:K19" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="B3:K19" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="B3:K19"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Number" dataDxfId="0"/>
-    <tableColumn id="2" name="A3" dataDxfId="1"/>
-    <tableColumn id="3" name="A2" dataDxfId="10"/>
-    <tableColumn id="4" name="A1" dataDxfId="9"/>
-    <tableColumn id="5" name="A0" dataDxfId="8"/>
-    <tableColumn id="6" name="B3" dataDxfId="7"/>
-    <tableColumn id="7" name="B2" dataDxfId="6"/>
-    <tableColumn id="8" name="B1" dataDxfId="5"/>
-    <tableColumn id="9" name="B0" dataDxfId="4"/>
+    <tableColumn id="1" name="Number" dataDxfId="8"/>
+    <tableColumn id="2" name="A3" dataDxfId="7"/>
+    <tableColumn id="3" name="A2" dataDxfId="6"/>
+    <tableColumn id="4" name="A1" dataDxfId="5"/>
+    <tableColumn id="5" name="A0" dataDxfId="4"/>
+    <tableColumn id="6" name="B3" dataDxfId="3"/>
+    <tableColumn id="7" name="B2" dataDxfId="2"/>
+    <tableColumn id="8" name="B1" dataDxfId="1"/>
+    <tableColumn id="9" name="B0" dataDxfId="0"/>
     <tableColumn id="10" name="B&gt;A = 1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
